--- a/data/rka.xlsx
+++ b/data/rka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KAI\Data\ZFM01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC50C813-64F4-4186-B977-B3A51CD57006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46B1F74C-F976-48B7-9162-2A67BD403BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
@@ -1248,8 +1248,8 @@
   <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G436" sqref="G436"/>
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14705,5 +14705,6 @@
   </sheetData>
   <autoFilter ref="A1:H543"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/rka.xlsx
+++ b/data/rka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KAI\Data\ZFM01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46B1F74C-F976-48B7-9162-2A67BD403BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E313E9BC-632F-4746-AE7D-F866A4295DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
@@ -539,7 +539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,12 +719,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -886,10 +880,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1248,14 +1241,17 @@
   <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:H543"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="60.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.1328125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -1295,16 +1291,16 @@
         <v>108692034000</v>
       </c>
       <c r="D2" s="1">
-        <v>24014425554</v>
+        <v>26587789762</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>24014425554</v>
+        <v>26587789762</v>
       </c>
       <c r="G2" s="1">
-        <v>84677608446</v>
+        <v>82104244238</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1393,22 +1389,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>10606569216</v>
+        <v>17677615360</v>
       </c>
       <c r="C6" s="1">
-        <v>10606569216</v>
+        <v>17677615360</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>17448621050</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>17448621050</v>
       </c>
       <c r="G6" s="1">
-        <v>10606569216</v>
+        <v>228994310</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1549,10 +1545,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>7238814982</v>
+        <v>12064691636</v>
       </c>
       <c r="C12" s="1">
-        <v>7238814982</v>
+        <v>12064691636</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1564,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>7238814982</v>
+        <v>12064691636</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1685,10 +1681,10 @@
         <v>1125000000</v>
       </c>
       <c r="D17" s="1">
-        <v>156323001</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>745369057</v>
+        <v>901692058</v>
       </c>
       <c r="F17" s="1">
         <v>901692058</v>
@@ -1731,22 +1727,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>192500000</v>
+        <v>185260000</v>
       </c>
       <c r="C19" s="1">
-        <v>192500000</v>
+        <v>185260000</v>
       </c>
       <c r="D19" s="1">
-        <v>17200689</v>
+        <v>24326714</v>
       </c>
       <c r="E19" s="1">
         <v>28810450</v>
       </c>
       <c r="F19" s="1">
-        <v>46011139</v>
+        <v>53137164</v>
       </c>
       <c r="G19" s="1">
-        <v>146488861</v>
+        <v>132122836</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1815,16 +1811,16 @@
         <v>200000000</v>
       </c>
       <c r="D22" s="1">
-        <v>99577000</v>
+        <v>56042500</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>49833500</v>
       </c>
       <c r="F22" s="1">
-        <v>99577000</v>
+        <v>105876000</v>
       </c>
       <c r="G22" s="1">
-        <v>100423000</v>
+        <v>94124000</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1844,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>157368750</v>
+        <v>174031250</v>
       </c>
       <c r="F23" s="1">
-        <v>157368750</v>
+        <v>174031250</v>
       </c>
       <c r="G23" s="1">
-        <v>467631250</v>
+        <v>450968750</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1896,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>212332431</v>
+        <v>413008253</v>
       </c>
       <c r="F25" s="1">
-        <v>212332431</v>
+        <v>413008253</v>
       </c>
       <c r="G25" s="1">
-        <v>3244281773</v>
+        <v>3043605951</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1922,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>3269389</v>
+        <v>6538778</v>
       </c>
       <c r="F26" s="1">
-        <v>3269389</v>
+        <v>6538778</v>
       </c>
       <c r="G26" s="1">
-        <v>49559234</v>
+        <v>46289845</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1948,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>160235000</v>
+        <v>308142214</v>
       </c>
       <c r="F27" s="1">
-        <v>160235000</v>
+        <v>308142214</v>
       </c>
       <c r="G27" s="1">
-        <v>3918035035</v>
+        <v>3770127821</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2000,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>586666746</v>
+        <v>1120324189</v>
       </c>
       <c r="F29" s="1">
-        <v>586666746</v>
+        <v>1120324189</v>
       </c>
       <c r="G29" s="1">
-        <v>10360808509</v>
+        <v>9827151066</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2026,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>22381293</v>
+        <v>44762586</v>
       </c>
       <c r="F30" s="1">
-        <v>22381293</v>
+        <v>44762586</v>
       </c>
       <c r="G30" s="1">
-        <v>225708709</v>
+        <v>203327416</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2052,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>634612500</v>
+        <v>1248726000</v>
       </c>
       <c r="F31" s="1">
-        <v>634612500</v>
+        <v>1248726000</v>
       </c>
       <c r="G31" s="1">
-        <v>13335453546</v>
+        <v>12721340046</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2199,22 +2195,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="1">
-        <v>333428574624</v>
+        <v>345318257422</v>
       </c>
       <c r="C37" s="1">
-        <v>333428574624</v>
+        <v>345318257422</v>
       </c>
       <c r="D37" s="1">
-        <v>124699613072</v>
+        <v>144528866854</v>
       </c>
       <c r="E37" s="1">
-        <v>2761953282</v>
+        <v>4506776944</v>
       </c>
       <c r="F37" s="1">
-        <v>127461566354</v>
+        <v>149035643798</v>
       </c>
       <c r="G37" s="1">
-        <v>205967008270</v>
+        <v>196282613624</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2225,22 +2221,22 @@
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>13559176240</v>
+        <v>17706636144</v>
       </c>
       <c r="C38" s="1">
-        <v>13559176240</v>
+        <v>17706636144</v>
       </c>
       <c r="D38" s="1">
-        <v>13414837700</v>
+        <v>13902367700</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>13414837700</v>
+        <v>13902367700</v>
       </c>
       <c r="G38" s="1">
-        <v>144338540</v>
+        <v>3804268444</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2491,16 +2487,16 @@
         <v>2130000000</v>
       </c>
       <c r="D48" s="1">
-        <v>758256549</v>
+        <v>834283272</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>758256549</v>
+        <v>834283272</v>
       </c>
       <c r="G48" s="1">
-        <v>1371743451</v>
+        <v>1295716728</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2621,16 +2617,16 @@
         <v>1310000000</v>
       </c>
       <c r="D53" s="1">
-        <v>64900000</v>
+        <v>113020000</v>
       </c>
       <c r="E53" s="1">
         <v>34500000</v>
       </c>
       <c r="F53" s="1">
-        <v>99400000</v>
+        <v>147520000</v>
       </c>
       <c r="G53" s="1">
-        <v>1210600000</v>
+        <v>1162480000</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2803,10 +2799,10 @@
         <v>256899832</v>
       </c>
       <c r="D60" s="1">
-        <v>28372310</v>
+        <v>7567000</v>
       </c>
       <c r="E60" s="1">
-        <v>7164040</v>
+        <v>27969350</v>
       </c>
       <c r="F60" s="1">
         <v>35536350</v>
@@ -2829,16 +2825,16 @@
         <v>204937866</v>
       </c>
       <c r="D61" s="1">
-        <v>30246600</v>
+        <v>49275316</v>
       </c>
       <c r="E61" s="1">
-        <v>14495000</v>
+        <v>14993600</v>
       </c>
       <c r="F61" s="1">
-        <v>44741600</v>
+        <v>64268916</v>
       </c>
       <c r="G61" s="1">
-        <v>160196266</v>
+        <v>140668950</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -2936,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>54572500</v>
+        <v>55122500</v>
       </c>
       <c r="F65" s="1">
-        <v>54572500</v>
+        <v>55122500</v>
       </c>
       <c r="G65" s="1">
-        <v>146919690</v>
+        <v>146369690</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3014,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>1671772990</v>
+        <v>3273696856</v>
       </c>
       <c r="F68" s="1">
-        <v>1671772990</v>
+        <v>3273696856</v>
       </c>
       <c r="G68" s="1">
-        <v>21259834239</v>
+        <v>19657910373</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3040,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>43949460</v>
+        <v>87915397</v>
       </c>
       <c r="F69" s="1">
-        <v>43949460</v>
+        <v>87915397</v>
       </c>
       <c r="G69" s="1">
-        <v>561005697</v>
+        <v>517039760</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3066,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>854231180</v>
+        <v>1613036038</v>
       </c>
       <c r="F70" s="1">
-        <v>854231180</v>
+        <v>1613036038</v>
       </c>
       <c r="G70" s="1">
-        <v>20113190350</v>
+        <v>19354385492</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3118,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>143475012</v>
+        <v>258896079</v>
       </c>
       <c r="F72" s="1">
-        <v>143475012</v>
+        <v>258896079</v>
       </c>
       <c r="G72" s="1">
-        <v>1505951573</v>
+        <v>1390530506</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3144,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>5468244</v>
+        <v>10936488</v>
       </c>
       <c r="F73" s="1">
-        <v>5468244</v>
+        <v>10936488</v>
       </c>
       <c r="G73" s="1">
-        <v>48191879</v>
+        <v>42723635</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3170,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>103332021</v>
+        <v>205194521</v>
       </c>
       <c r="F74" s="1">
-        <v>103332021</v>
+        <v>205194521</v>
       </c>
       <c r="G74" s="1">
-        <v>1833786507</v>
+        <v>1731924007</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3239,22 +3235,22 @@
         <v>61</v>
       </c>
       <c r="B77" s="1">
-        <v>80104325051</v>
+        <v>84251784955</v>
       </c>
       <c r="C77" s="1">
-        <v>80104325051</v>
+        <v>84251784955</v>
       </c>
       <c r="D77" s="1">
-        <v>16995943953</v>
+        <v>17605844082</v>
       </c>
       <c r="E77" s="1">
-        <v>3422104879</v>
+        <v>6071405261</v>
       </c>
       <c r="F77" s="1">
-        <v>20418048832</v>
+        <v>23677249343</v>
       </c>
       <c r="G77" s="1">
-        <v>59686276219</v>
+        <v>60574535612</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3271,16 +3267,16 @@
         <v>2022054000</v>
       </c>
       <c r="D78" s="1">
-        <v>781711000</v>
+        <v>1229711000</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>781711000</v>
+        <v>1229711000</v>
       </c>
       <c r="G78" s="1">
-        <v>1240343000</v>
+        <v>792343000</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3343,22 +3339,22 @@
         <v>18</v>
       </c>
       <c r="B81" s="1">
-        <v>19772688794</v>
+        <v>23866781388</v>
       </c>
       <c r="C81" s="1">
-        <v>19772688794</v>
+        <v>23866781388</v>
       </c>
       <c r="D81" s="1">
-        <v>9259263614</v>
+        <v>22699357069</v>
       </c>
       <c r="E81" s="1">
         <v>270535984</v>
       </c>
       <c r="F81" s="1">
-        <v>9529799598</v>
+        <v>22969893053</v>
       </c>
       <c r="G81" s="1">
-        <v>10242889196</v>
+        <v>896888335</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3479,16 +3475,16 @@
         <v>1398260000</v>
       </c>
       <c r="D86" s="1">
-        <v>451592599</v>
+        <v>722440785</v>
       </c>
       <c r="E86" s="1">
         <v>127902843</v>
       </c>
       <c r="F86" s="1">
-        <v>579495442</v>
+        <v>850343628</v>
       </c>
       <c r="G86" s="1">
-        <v>818764558</v>
+        <v>547916372</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -3528,7 +3524,7 @@
         <v>2926668275</v>
       </c>
       <c r="C88" s="1">
-        <v>2926668275</v>
+        <v>180831882</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -3540,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>2926668275</v>
+        <v>180831882</v>
       </c>
       <c r="H88" s="1">
-        <v>0</v>
+        <v>2745836393</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3713,10 +3709,10 @@
         <v>54400000</v>
       </c>
       <c r="D95" s="1">
-        <v>39400000</v>
+        <v>19700000</v>
       </c>
       <c r="E95" s="1">
-        <v>7500000</v>
+        <v>27200000</v>
       </c>
       <c r="F95" s="1">
         <v>46900000</v>
@@ -3768,13 +3764,13 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>76226500</v>
+        <v>77114000</v>
       </c>
       <c r="F97" s="1">
-        <v>76226500</v>
+        <v>77114000</v>
       </c>
       <c r="G97" s="1">
-        <v>34821750</v>
+        <v>33934250</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -3872,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>1187473222</v>
+        <v>2331721923</v>
       </c>
       <c r="F101" s="1">
-        <v>1187473222</v>
+        <v>2331721923</v>
       </c>
       <c r="G101" s="1">
-        <v>15036171631</v>
+        <v>13891922930</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
@@ -3898,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>16492463</v>
+        <v>32984926</v>
       </c>
       <c r="F102" s="1">
-        <v>16492463</v>
+        <v>32984926</v>
       </c>
       <c r="G102" s="1">
-        <v>185098599</v>
+        <v>168606136</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -3924,13 +3920,13 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>616965481</v>
+        <v>1150516481</v>
       </c>
       <c r="F103" s="1">
-        <v>616965481</v>
+        <v>1150516481</v>
       </c>
       <c r="G103" s="1">
-        <v>13881214467</v>
+        <v>13347663467</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -3976,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>98753250</v>
+        <v>195522638</v>
       </c>
       <c r="F105" s="1">
-        <v>98753250</v>
+        <v>195522638</v>
       </c>
       <c r="G105" s="1">
-        <v>1865719746</v>
+        <v>1768950358</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -4002,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>3342534</v>
+        <v>6685068</v>
       </c>
       <c r="F106" s="1">
-        <v>3342534</v>
+        <v>6685068</v>
       </c>
       <c r="G106" s="1">
-        <v>37570082</v>
+        <v>34227548</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -4028,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>86847106</v>
+        <v>172772106</v>
       </c>
       <c r="F107" s="1">
-        <v>86847106</v>
+        <v>172772106</v>
       </c>
       <c r="G107" s="1">
-        <v>1841813768</v>
+        <v>1755888768</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -4071,25 +4067,25 @@
         <v>75</v>
       </c>
       <c r="B109" s="1">
-        <v>65148039849</v>
+        <v>69242132443</v>
       </c>
       <c r="C109" s="1">
-        <v>65148039849</v>
+        <v>66496296050</v>
       </c>
       <c r="D109" s="1">
-        <v>11205054815</v>
+        <v>25344296456</v>
       </c>
       <c r="E109" s="1">
-        <v>2659387851</v>
+        <v>4560304437</v>
       </c>
       <c r="F109" s="1">
-        <v>13864442666</v>
+        <v>29904600893</v>
       </c>
       <c r="G109" s="1">
-        <v>51283597183</v>
+        <v>36591695157</v>
       </c>
       <c r="H109" s="1">
-        <v>0</v>
+        <v>2745836393</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -4175,10 +4171,10 @@
         <v>48</v>
       </c>
       <c r="B113" s="1">
-        <v>464573500</v>
+        <v>506359062</v>
       </c>
       <c r="C113" s="1">
-        <v>464573500</v>
+        <v>506359062</v>
       </c>
       <c r="D113" s="1">
         <v>4778729</v>
@@ -4190,7 +4186,7 @@
         <v>9466019</v>
       </c>
       <c r="G113" s="1">
-        <v>455107481</v>
+        <v>496893043</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -4285,10 +4281,10 @@
         <v>832500000</v>
       </c>
       <c r="D117" s="1">
-        <v>259959352</v>
+        <v>250134752</v>
       </c>
       <c r="E117" s="1">
-        <v>83469533</v>
+        <v>93294133</v>
       </c>
       <c r="F117" s="1">
         <v>343428885</v>
@@ -4331,10 +4327,10 @@
         <v>50</v>
       </c>
       <c r="B119" s="1">
-        <v>340000000</v>
+        <v>443635113</v>
       </c>
       <c r="C119" s="1">
-        <v>340000000</v>
+        <v>443635113</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -4346,7 +4342,7 @@
         <v>49555233</v>
       </c>
       <c r="G119" s="1">
-        <v>290444767</v>
+        <v>394079880</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
@@ -4357,10 +4353,10 @@
         <v>52</v>
       </c>
       <c r="B120" s="1">
-        <v>1116584000</v>
+        <v>1906218580</v>
       </c>
       <c r="C120" s="1">
-        <v>1116584000</v>
+        <v>1906218580</v>
       </c>
       <c r="D120" s="1">
         <v>688318140</v>
@@ -4372,7 +4368,7 @@
         <v>688318140</v>
       </c>
       <c r="G120" s="1">
-        <v>428265860</v>
+        <v>1217900440</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
@@ -4435,10 +4431,10 @@
         <v>56</v>
       </c>
       <c r="B123" s="1">
-        <v>350000000</v>
+        <v>394079880</v>
       </c>
       <c r="C123" s="1">
-        <v>350000000</v>
+        <v>394079880</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -4450,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <v>350000000</v>
+        <v>394079880</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
@@ -4652,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>31287000</v>
+        <v>31812000</v>
       </c>
       <c r="F131" s="1">
-        <v>31287000</v>
+        <v>31812000</v>
       </c>
       <c r="G131" s="1">
-        <v>22066000</v>
+        <v>21541000</v>
       </c>
       <c r="H131" s="1">
         <v>0</v>
@@ -4675,16 +4671,16 @@
         <v>8000000</v>
       </c>
       <c r="D132" s="1">
-        <v>7991445</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>7199500</v>
       </c>
       <c r="F132" s="1">
-        <v>7991445</v>
+        <v>7199500</v>
       </c>
       <c r="G132" s="1">
-        <v>8555</v>
+        <v>800500</v>
       </c>
       <c r="H132" s="1">
         <v>0</v>
@@ -4730,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="E134" s="1">
-        <v>715552915</v>
+        <v>1449349467</v>
       </c>
       <c r="F134" s="1">
-        <v>715552915</v>
+        <v>1449349467</v>
       </c>
       <c r="G134" s="1">
-        <v>9233541168</v>
+        <v>8499744616</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -4756,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>32007055</v>
+        <v>64014112</v>
       </c>
       <c r="F135" s="1">
-        <v>32007055</v>
+        <v>64014112</v>
       </c>
       <c r="G135" s="1">
-        <v>354558347</v>
+        <v>322551290</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -4782,13 +4778,13 @@
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <v>396932160</v>
+        <v>738995660</v>
       </c>
       <c r="F136" s="1">
-        <v>396932160</v>
+        <v>738995660</v>
       </c>
       <c r="G136" s="1">
-        <v>9372917731</v>
+        <v>9030854231</v>
       </c>
       <c r="H136" s="1">
         <v>0</v>
@@ -4834,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>67015786</v>
+        <v>129978953</v>
       </c>
       <c r="F138" s="1">
-        <v>67015786</v>
+        <v>129978953</v>
       </c>
       <c r="G138" s="1">
-        <v>1341496217</v>
+        <v>1278533050</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -4860,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>2156354</v>
+        <v>4312708</v>
       </c>
       <c r="F139" s="1">
-        <v>2156354</v>
+        <v>4312708</v>
       </c>
       <c r="G139" s="1">
-        <v>36163035</v>
+        <v>34006681</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
@@ -4886,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>59233150</v>
+        <v>117253150</v>
       </c>
       <c r="F140" s="1">
-        <v>59233150</v>
+        <v>117253150</v>
       </c>
       <c r="G140" s="1">
-        <v>1271084389</v>
+        <v>1213064389</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
@@ -4955,22 +4951,22 @@
         <v>76</v>
       </c>
       <c r="B143" s="1">
-        <v>36217119717</v>
+        <v>37196254852</v>
       </c>
       <c r="C143" s="1">
-        <v>36217119717</v>
+        <v>37196254852</v>
       </c>
       <c r="D143" s="1">
-        <v>4824137453</v>
+        <v>4806321408</v>
       </c>
       <c r="E143" s="1">
-        <v>1916549446</v>
+        <v>3165105176</v>
       </c>
       <c r="F143" s="1">
-        <v>6740686899</v>
+        <v>7971426584</v>
       </c>
       <c r="G143" s="1">
-        <v>29476432818</v>
+        <v>29224828268</v>
       </c>
       <c r="H143" s="1">
         <v>0</v>
@@ -5091,16 +5087,16 @@
         <v>435218500</v>
       </c>
       <c r="D148" s="1">
-        <v>8315000</v>
+        <v>37086200</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
       </c>
       <c r="F148" s="1">
-        <v>8315000</v>
+        <v>37086200</v>
       </c>
       <c r="G148" s="1">
-        <v>426903500</v>
+        <v>398132300</v>
       </c>
       <c r="H148" s="1">
         <v>0</v>
@@ -5117,10 +5113,10 @@
         <v>196881500</v>
       </c>
       <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
         <v>10224916</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
       </c>
       <c r="F149" s="1">
         <v>10224916</v>
@@ -5143,16 +5139,16 @@
         <v>1155703000</v>
       </c>
       <c r="D150" s="1">
-        <v>381170336</v>
+        <v>376820336</v>
       </c>
       <c r="E150" s="1">
         <v>17820000</v>
       </c>
       <c r="F150" s="1">
-        <v>398990336</v>
+        <v>394640336</v>
       </c>
       <c r="G150" s="1">
-        <v>756712664</v>
+        <v>761062664</v>
       </c>
       <c r="H150" s="1">
         <v>0</v>
@@ -5273,16 +5269,16 @@
         <v>250000000</v>
       </c>
       <c r="D155" s="1">
-        <v>9740403</v>
+        <v>28227453</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
       </c>
       <c r="F155" s="1">
-        <v>9740403</v>
+        <v>28227453</v>
       </c>
       <c r="G155" s="1">
-        <v>240259597</v>
+        <v>221772547</v>
       </c>
       <c r="H155" s="1">
         <v>0</v>
@@ -5481,16 +5477,16 @@
         <v>136250000</v>
       </c>
       <c r="D163" s="1">
-        <v>74362800</v>
+        <v>78481609</v>
       </c>
       <c r="E163" s="1">
         <v>47571235</v>
       </c>
       <c r="F163" s="1">
-        <v>121934035</v>
+        <v>126052844</v>
       </c>
       <c r="G163" s="1">
-        <v>14315965</v>
+        <v>10197156</v>
       </c>
       <c r="H163" s="1">
         <v>0</v>
@@ -5640,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="E169" s="1">
-        <v>537224369</v>
+        <v>1068280190</v>
       </c>
       <c r="F169" s="1">
-        <v>537224369</v>
+        <v>1068280190</v>
       </c>
       <c r="G169" s="1">
-        <v>6967499009</v>
+        <v>6436443188</v>
       </c>
       <c r="H169" s="1">
         <v>0</v>
@@ -5666,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="E170" s="1">
-        <v>18826994</v>
+        <v>37653988</v>
       </c>
       <c r="F170" s="1">
-        <v>18826994</v>
+        <v>37653988</v>
       </c>
       <c r="G170" s="1">
-        <v>207509076</v>
+        <v>188682082</v>
       </c>
       <c r="H170" s="1">
         <v>0</v>
@@ -5692,13 +5688,13 @@
         <v>0</v>
       </c>
       <c r="E171" s="1">
-        <v>253757500</v>
+        <v>507515000</v>
       </c>
       <c r="F171" s="1">
-        <v>253757500</v>
+        <v>507515000</v>
       </c>
       <c r="G171" s="1">
-        <v>7074881000</v>
+        <v>6821123500</v>
       </c>
       <c r="H171" s="1">
         <v>0</v>
@@ -5744,13 +5740,13 @@
         <v>0</v>
       </c>
       <c r="E173" s="1">
-        <v>65635753</v>
+        <v>133425611</v>
       </c>
       <c r="F173" s="1">
-        <v>65635753</v>
+        <v>133425611</v>
       </c>
       <c r="G173" s="1">
-        <v>1220383580</v>
+        <v>1152593722</v>
       </c>
       <c r="H173" s="1">
         <v>0</v>
@@ -5770,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="E174" s="1">
-        <v>3031442</v>
+        <v>6120465</v>
       </c>
       <c r="F174" s="1">
-        <v>3031442</v>
+        <v>6120465</v>
       </c>
       <c r="G174" s="1">
-        <v>33787298</v>
+        <v>30698275</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
@@ -5796,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="E175" s="1">
-        <v>60570000</v>
+        <v>124015714</v>
       </c>
       <c r="F175" s="1">
-        <v>60570000</v>
+        <v>124015714</v>
       </c>
       <c r="G175" s="1">
-        <v>1310849909</v>
+        <v>1247404195</v>
       </c>
       <c r="H175" s="1">
         <v>0</v>
@@ -5845,16 +5841,16 @@
         <v>30446840487</v>
       </c>
       <c r="D177" s="1">
-        <v>1627543445</v>
+        <v>1664345588</v>
       </c>
       <c r="E177" s="1">
-        <v>1392721099</v>
+        <v>2340910925</v>
       </c>
       <c r="F177" s="1">
-        <v>3020264544</v>
+        <v>4005256513</v>
       </c>
       <c r="G177" s="1">
-        <v>27426575943</v>
+        <v>26441583974</v>
       </c>
       <c r="H177" s="1">
         <v>0</v>
@@ -5975,16 +5971,16 @@
         <v>1515061000</v>
       </c>
       <c r="D182" s="1">
-        <v>0</v>
+        <v>455634691</v>
       </c>
       <c r="E182" s="1">
         <v>0</v>
       </c>
       <c r="F182" s="1">
-        <v>0</v>
+        <v>455634691</v>
       </c>
       <c r="G182" s="1">
-        <v>1515061000</v>
+        <v>1059426309</v>
       </c>
       <c r="H182" s="1">
         <v>0</v>
@@ -6131,10 +6127,10 @@
         <v>931325000</v>
       </c>
       <c r="D188" s="1">
-        <v>171049796</v>
+        <v>151082296</v>
       </c>
       <c r="E188" s="1">
-        <v>0</v>
+        <v>19967500</v>
       </c>
       <c r="F188" s="1">
         <v>171049796</v>
@@ -6550,13 +6546,13 @@
         <v>0</v>
       </c>
       <c r="E204" s="1">
-        <v>24331000</v>
+        <v>42053250</v>
       </c>
       <c r="F204" s="1">
-        <v>24331000</v>
+        <v>42053250</v>
       </c>
       <c r="G204" s="1">
-        <v>38669000</v>
+        <v>20946750</v>
       </c>
       <c r="H204" s="1">
         <v>0</v>
@@ -6628,13 +6624,13 @@
         <v>0</v>
       </c>
       <c r="E207" s="1">
-        <v>722444937</v>
+        <v>1412923038</v>
       </c>
       <c r="F207" s="1">
-        <v>722444937</v>
+        <v>1412923038</v>
       </c>
       <c r="G207" s="1">
-        <v>9100717189</v>
+        <v>8410239088</v>
       </c>
       <c r="H207" s="1">
         <v>0</v>
@@ -6654,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="E208" s="1">
-        <v>20097643</v>
+        <v>40195286</v>
       </c>
       <c r="F208" s="1">
-        <v>20097643</v>
+        <v>40195286</v>
       </c>
       <c r="G208" s="1">
-        <v>233159328</v>
+        <v>213061685</v>
       </c>
       <c r="H208" s="1">
         <v>0</v>
@@ -6680,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="E209" s="1">
-        <v>388833044</v>
+        <v>721505544</v>
       </c>
       <c r="F209" s="1">
-        <v>388833044</v>
+        <v>721505544</v>
       </c>
       <c r="G209" s="1">
-        <v>8856842328</v>
+        <v>8524169828</v>
       </c>
       <c r="H209" s="1">
         <v>0</v>
@@ -6732,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="E211" s="1">
-        <v>60462549</v>
+        <v>148855099</v>
       </c>
       <c r="F211" s="1">
-        <v>60462549</v>
+        <v>148855099</v>
       </c>
       <c r="G211" s="1">
-        <v>651199520</v>
+        <v>562806970</v>
       </c>
       <c r="H211" s="1">
         <v>0</v>
@@ -6758,13 +6754,13 @@
         <v>0</v>
       </c>
       <c r="E212" s="1">
-        <v>3182463</v>
+        <v>6364926</v>
       </c>
       <c r="F212" s="1">
-        <v>3182463</v>
+        <v>6364926</v>
       </c>
       <c r="G212" s="1">
-        <v>21519999</v>
+        <v>18337536</v>
       </c>
       <c r="H212" s="1">
         <v>0</v>
@@ -6784,13 +6780,13 @@
         <v>0</v>
       </c>
       <c r="E213" s="1">
-        <v>57385405</v>
+        <v>113780405</v>
       </c>
       <c r="F213" s="1">
-        <v>57385405</v>
+        <v>113780405</v>
       </c>
       <c r="G213" s="1">
-        <v>767780528</v>
+        <v>711385528</v>
       </c>
       <c r="H213" s="1">
         <v>0</v>
@@ -6833,16 +6829,16 @@
         <v>31456490899</v>
       </c>
       <c r="D215" s="1">
-        <v>1027016406</v>
+        <v>1462683597</v>
       </c>
       <c r="E215" s="1">
-        <v>1813400878</v>
+        <v>3042308885</v>
       </c>
       <c r="F215" s="1">
-        <v>2840417284</v>
+        <v>4504992482</v>
       </c>
       <c r="G215" s="1">
-        <v>28616073615</v>
+        <v>26951498417</v>
       </c>
       <c r="H215" s="1">
         <v>0</v>
@@ -6937,16 +6933,16 @@
         <v>247500000</v>
       </c>
       <c r="D219" s="1">
-        <v>0</v>
+        <v>29117120</v>
       </c>
       <c r="E219" s="1">
         <v>0</v>
       </c>
       <c r="F219" s="1">
-        <v>0</v>
+        <v>29117120</v>
       </c>
       <c r="G219" s="1">
-        <v>247500000</v>
+        <v>218382880</v>
       </c>
       <c r="H219" s="1">
         <v>0</v>
@@ -6989,10 +6985,10 @@
         <v>655195500</v>
       </c>
       <c r="D221" s="1">
-        <v>29796000</v>
+        <v>26946000</v>
       </c>
       <c r="E221" s="1">
-        <v>97533550</v>
+        <v>100383550</v>
       </c>
       <c r="F221" s="1">
         <v>127329550</v>
@@ -7015,16 +7011,16 @@
         <v>690000000</v>
       </c>
       <c r="D222" s="1">
-        <v>120312500</v>
+        <v>127050500</v>
       </c>
       <c r="E222" s="1">
-        <v>123648000</v>
+        <v>157861000</v>
       </c>
       <c r="F222" s="1">
-        <v>243960500</v>
+        <v>284911500</v>
       </c>
       <c r="G222" s="1">
-        <v>446039500</v>
+        <v>405088500</v>
       </c>
       <c r="H222" s="1">
         <v>0</v>
@@ -7301,16 +7297,16 @@
         <v>118079500</v>
       </c>
       <c r="D233" s="1">
-        <v>52063500</v>
+        <v>37411500</v>
       </c>
       <c r="E233" s="1">
-        <v>28000400</v>
+        <v>41200400</v>
       </c>
       <c r="F233" s="1">
-        <v>80063900</v>
+        <v>78611900</v>
       </c>
       <c r="G233" s="1">
-        <v>38015600</v>
+        <v>39467600</v>
       </c>
       <c r="H233" s="1">
         <v>0</v>
@@ -7353,16 +7349,16 @@
         <v>243750000</v>
       </c>
       <c r="D235" s="1">
-        <v>58725935</v>
+        <v>63772935</v>
       </c>
       <c r="E235" s="1">
-        <v>20014500</v>
+        <v>24059500</v>
       </c>
       <c r="F235" s="1">
-        <v>78740435</v>
+        <v>87832435</v>
       </c>
       <c r="G235" s="1">
-        <v>165009565</v>
+        <v>155917565</v>
       </c>
       <c r="H235" s="1">
         <v>0</v>
@@ -7382,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="E236" s="1">
-        <v>35450750</v>
+        <v>36000750</v>
       </c>
       <c r="F236" s="1">
-        <v>35450750</v>
+        <v>36000750</v>
       </c>
       <c r="G236" s="1">
-        <v>31977250</v>
+        <v>31427250</v>
       </c>
       <c r="H236" s="1">
         <v>0</v>
@@ -7434,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="E238" s="1">
-        <v>729600506</v>
+        <v>1413862314</v>
       </c>
       <c r="F238" s="1">
-        <v>729600506</v>
+        <v>1413862314</v>
       </c>
       <c r="G238" s="1">
-        <v>9096355664</v>
+        <v>8412093856</v>
       </c>
       <c r="H238" s="1">
         <v>0</v>
@@ -7460,13 +7456,13 @@
         <v>0</v>
       </c>
       <c r="E239" s="1">
-        <v>40686264</v>
+        <v>81372528</v>
       </c>
       <c r="F239" s="1">
-        <v>40686264</v>
+        <v>81372528</v>
       </c>
       <c r="G239" s="1">
-        <v>429162314</v>
+        <v>388476050</v>
       </c>
       <c r="H239" s="1">
         <v>0</v>
@@ -7486,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="E240" s="1">
-        <v>386965220</v>
+        <v>721378720</v>
       </c>
       <c r="F240" s="1">
-        <v>386965220</v>
+        <v>721378720</v>
       </c>
       <c r="G240" s="1">
-        <v>9125140697</v>
+        <v>8790727197</v>
       </c>
       <c r="H240" s="1">
         <v>0</v>
@@ -7538,13 +7534,13 @@
         <v>0</v>
       </c>
       <c r="E242" s="1">
-        <v>63900298</v>
+        <v>142576822</v>
       </c>
       <c r="F242" s="1">
-        <v>63900298</v>
+        <v>142576822</v>
       </c>
       <c r="G242" s="1">
-        <v>931042263</v>
+        <v>852365739</v>
       </c>
       <c r="H242" s="1">
         <v>0</v>
@@ -7564,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="E243" s="1">
-        <v>3413061</v>
+        <v>6842991</v>
       </c>
       <c r="F243" s="1">
-        <v>3413061</v>
+        <v>6842991</v>
       </c>
       <c r="G243" s="1">
-        <v>30125298</v>
+        <v>26695368</v>
       </c>
       <c r="H243" s="1">
         <v>0</v>
@@ -7590,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="E244" s="1">
-        <v>57795000</v>
+        <v>115590000</v>
       </c>
       <c r="F244" s="1">
-        <v>57795000</v>
+        <v>115590000</v>
       </c>
       <c r="G244" s="1">
-        <v>1041932334</v>
+        <v>984137334</v>
       </c>
       <c r="H244" s="1">
         <v>0</v>
@@ -7639,16 +7635,16 @@
         <v>34543933670</v>
       </c>
       <c r="D246" s="1">
-        <v>3061121415</v>
+        <v>3084521535</v>
       </c>
       <c r="E246" s="1">
-        <v>1997097448</v>
+        <v>3251218474</v>
       </c>
       <c r="F246" s="1">
-        <v>5058218863</v>
+        <v>6335740009</v>
       </c>
       <c r="G246" s="1">
-        <v>29485714807</v>
+        <v>28208193661</v>
       </c>
       <c r="H246" s="1">
         <v>0</v>
@@ -7795,10 +7791,10 @@
         <v>1634991000</v>
       </c>
       <c r="D252" s="1">
-        <v>296910000</v>
+        <v>272260000</v>
       </c>
       <c r="E252" s="1">
-        <v>0</v>
+        <v>24650000</v>
       </c>
       <c r="F252" s="1">
         <v>296910000</v>
@@ -7977,16 +7973,16 @@
         <v>273768000</v>
       </c>
       <c r="D259" s="1">
-        <v>0</v>
+        <v>232560000</v>
       </c>
       <c r="E259" s="1">
         <v>0</v>
       </c>
       <c r="F259" s="1">
-        <v>0</v>
+        <v>232560000</v>
       </c>
       <c r="G259" s="1">
-        <v>273768000</v>
+        <v>41208000</v>
       </c>
       <c r="H259" s="1">
         <v>0</v>
@@ -8029,16 +8025,16 @@
         <v>575500000</v>
       </c>
       <c r="D261" s="1">
-        <v>0</v>
+        <v>316539281</v>
       </c>
       <c r="E261" s="1">
         <v>0</v>
       </c>
       <c r="F261" s="1">
-        <v>0</v>
+        <v>316539281</v>
       </c>
       <c r="G261" s="1">
-        <v>575500000</v>
+        <v>258960719</v>
       </c>
       <c r="H261" s="1">
         <v>0</v>
@@ -8133,10 +8129,10 @@
         <v>375000000</v>
       </c>
       <c r="D265" s="1">
+        <v>0</v>
+      </c>
+      <c r="E265" s="1">
         <v>36500000</v>
-      </c>
-      <c r="E265" s="1">
-        <v>0</v>
       </c>
       <c r="F265" s="1">
         <v>36500000</v>
@@ -8211,10 +8207,10 @@
         <v>173189000</v>
       </c>
       <c r="D268" s="1">
+        <v>0</v>
+      </c>
+      <c r="E268" s="1">
         <v>62100000</v>
-      </c>
-      <c r="E268" s="1">
-        <v>0</v>
       </c>
       <c r="F268" s="1">
         <v>62100000</v>
@@ -8263,10 +8259,10 @@
         <v>24334750</v>
       </c>
       <c r="D270" s="1">
-        <v>16128877</v>
+        <v>12000000</v>
       </c>
       <c r="E270" s="1">
-        <v>0</v>
+        <v>4128877</v>
       </c>
       <c r="F270" s="1">
         <v>16128877</v>
@@ -8289,16 +8285,16 @@
         <v>97531500</v>
       </c>
       <c r="D271" s="1">
-        <v>91299030</v>
+        <v>21321000</v>
       </c>
       <c r="E271" s="1">
-        <v>0</v>
+        <v>69680733</v>
       </c>
       <c r="F271" s="1">
-        <v>91299030</v>
+        <v>91001733</v>
       </c>
       <c r="G271" s="1">
-        <v>6232470</v>
+        <v>6529767</v>
       </c>
       <c r="H271" s="1">
         <v>0</v>
@@ -8474,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="E278" s="1">
-        <v>928726883</v>
+        <v>1810485850</v>
       </c>
       <c r="F278" s="1">
-        <v>928726883</v>
+        <v>1810485850</v>
       </c>
       <c r="G278" s="1">
-        <v>11693892044</v>
+        <v>10812133077</v>
       </c>
       <c r="H278" s="1">
         <v>0</v>
@@ -8500,13 +8496,13 @@
         <v>0</v>
       </c>
       <c r="E279" s="1">
-        <v>15096109</v>
+        <v>30192218</v>
       </c>
       <c r="F279" s="1">
-        <v>15096109</v>
+        <v>30192218</v>
       </c>
       <c r="G279" s="1">
-        <v>179952183</v>
+        <v>164856074</v>
       </c>
       <c r="H279" s="1">
         <v>0</v>
@@ -8526,13 +8522,13 @@
         <v>0</v>
       </c>
       <c r="E280" s="1">
-        <v>514267570</v>
+        <v>967035070</v>
       </c>
       <c r="F280" s="1">
-        <v>514267570</v>
+        <v>967035070</v>
       </c>
       <c r="G280" s="1">
-        <v>12397449845</v>
+        <v>11944682345</v>
       </c>
       <c r="H280" s="1">
         <v>0</v>
@@ -8578,13 +8574,13 @@
         <v>0</v>
       </c>
       <c r="E282" s="1">
-        <v>80077571</v>
+        <v>159842823</v>
       </c>
       <c r="F282" s="1">
-        <v>80077571</v>
+        <v>159842823</v>
       </c>
       <c r="G282" s="1">
-        <v>1180533084</v>
+        <v>1100767832</v>
       </c>
       <c r="H282" s="1">
         <v>0</v>
@@ -8604,13 +8600,13 @@
         <v>0</v>
       </c>
       <c r="E283" s="1">
-        <v>2227336</v>
+        <v>4454672</v>
       </c>
       <c r="F283" s="1">
-        <v>2227336</v>
+        <v>4454672</v>
       </c>
       <c r="G283" s="1">
-        <v>25228465</v>
+        <v>23001129</v>
       </c>
       <c r="H283" s="1">
         <v>0</v>
@@ -8630,13 +8626,13 @@
         <v>0</v>
       </c>
       <c r="E284" s="1">
-        <v>73125312</v>
+        <v>145465312</v>
       </c>
       <c r="F284" s="1">
-        <v>73125312</v>
+        <v>145465312</v>
       </c>
       <c r="G284" s="1">
-        <v>1487203525</v>
+        <v>1414863525</v>
       </c>
       <c r="H284" s="1">
         <v>0</v>
@@ -8679,16 +8675,16 @@
         <v>45434097707</v>
       </c>
       <c r="D286" s="1">
-        <v>4403260758</v>
+        <v>4755003132</v>
       </c>
       <c r="E286" s="1">
-        <v>2023599490</v>
+        <v>3724614264</v>
       </c>
       <c r="F286" s="1">
-        <v>6426860248</v>
+        <v>8479617396</v>
       </c>
       <c r="G286" s="1">
-        <v>39007237459</v>
+        <v>36954480311</v>
       </c>
       <c r="H286" s="1">
         <v>0</v>
@@ -8887,10 +8883,10 @@
         <v>267150000</v>
       </c>
       <c r="D294" s="1">
-        <v>67815500</v>
+        <v>56773500</v>
       </c>
       <c r="E294" s="1">
-        <v>75517328</v>
+        <v>86559328</v>
       </c>
       <c r="F294" s="1">
         <v>143332828</v>
@@ -9173,16 +9169,16 @@
         <v>21538000</v>
       </c>
       <c r="D305" s="1">
-        <v>3289300</v>
+        <v>8289300</v>
       </c>
       <c r="E305" s="1">
         <v>4974701</v>
       </c>
       <c r="F305" s="1">
-        <v>8264001</v>
+        <v>13264001</v>
       </c>
       <c r="G305" s="1">
-        <v>13273999</v>
+        <v>8273999</v>
       </c>
       <c r="H305" s="1">
         <v>0</v>
@@ -9280,13 +9276,13 @@
         <v>0</v>
       </c>
       <c r="E309" s="1">
-        <v>27289500</v>
+        <v>27614500</v>
       </c>
       <c r="F309" s="1">
-        <v>27289500</v>
+        <v>27614500</v>
       </c>
       <c r="G309" s="1">
-        <v>30210500</v>
+        <v>29885500</v>
       </c>
       <c r="H309" s="1">
         <v>0</v>
@@ -9303,16 +9299,16 @@
         <v>10075000</v>
       </c>
       <c r="D310" s="1">
-        <v>0</v>
+        <v>9982500</v>
       </c>
       <c r="E310" s="1">
         <v>0</v>
       </c>
       <c r="F310" s="1">
-        <v>0</v>
+        <v>9982500</v>
       </c>
       <c r="G310" s="1">
-        <v>10075000</v>
+        <v>92500</v>
       </c>
       <c r="H310" s="1">
         <v>0</v>
@@ -9332,13 +9328,13 @@
         <v>0</v>
       </c>
       <c r="E311" s="1">
-        <v>487266716</v>
+        <v>970177778</v>
       </c>
       <c r="F311" s="1">
-        <v>487266716</v>
+        <v>970177778</v>
       </c>
       <c r="G311" s="1">
-        <v>6566525549</v>
+        <v>6083614487</v>
       </c>
       <c r="H311" s="1">
         <v>0</v>
@@ -9358,13 +9354,13 @@
         <v>0</v>
       </c>
       <c r="E312" s="1">
-        <v>20726705</v>
+        <v>41453410</v>
       </c>
       <c r="F312" s="1">
-        <v>20726705</v>
+        <v>41453410</v>
       </c>
       <c r="G312" s="1">
-        <v>230175204</v>
+        <v>209448499</v>
       </c>
       <c r="H312" s="1">
         <v>0</v>
@@ -9384,13 +9380,13 @@
         <v>0</v>
       </c>
       <c r="E313" s="1">
-        <v>292048102</v>
+        <v>547955102</v>
       </c>
       <c r="F313" s="1">
-        <v>292048102</v>
+        <v>547955102</v>
       </c>
       <c r="G313" s="1">
-        <v>6722994319</v>
+        <v>6467087319</v>
       </c>
       <c r="H313" s="1">
         <v>0</v>
@@ -9436,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="E315" s="1">
-        <v>73796344</v>
+        <v>158536272</v>
       </c>
       <c r="F315" s="1">
-        <v>73796344</v>
+        <v>158536272</v>
       </c>
       <c r="G315" s="1">
-        <v>1157415722</v>
+        <v>1072675794</v>
       </c>
       <c r="H315" s="1">
         <v>0</v>
@@ -9462,13 +9458,13 @@
         <v>0</v>
       </c>
       <c r="E316" s="1">
-        <v>5327528</v>
+        <v>10655056</v>
       </c>
       <c r="F316" s="1">
-        <v>5327528</v>
+        <v>10655056</v>
       </c>
       <c r="G316" s="1">
-        <v>48108591</v>
+        <v>42781063</v>
       </c>
       <c r="H316" s="1">
         <v>0</v>
@@ -9488,13 +9484,13 @@
         <v>0</v>
       </c>
       <c r="E317" s="1">
-        <v>60937502</v>
+        <v>120676002</v>
       </c>
       <c r="F317" s="1">
-        <v>60937502</v>
+        <v>120676002</v>
       </c>
       <c r="G317" s="1">
-        <v>1388774877</v>
+        <v>1329036377</v>
       </c>
       <c r="H317" s="1">
         <v>0</v>
@@ -9537,16 +9533,16 @@
         <v>23118250460</v>
       </c>
       <c r="D319" s="1">
-        <v>2186447075</v>
+        <v>2190387575</v>
       </c>
       <c r="E319" s="1">
-        <v>1347980321</v>
+        <v>2268698044</v>
       </c>
       <c r="F319" s="1">
-        <v>3534427396</v>
+        <v>4459085619</v>
       </c>
       <c r="G319" s="1">
-        <v>19583823064</v>
+        <v>18659164841</v>
       </c>
       <c r="H319" s="1">
         <v>0</v>
@@ -9719,10 +9715,10 @@
         <v>1395999500</v>
       </c>
       <c r="D326" s="1">
-        <v>537430700</v>
+        <v>475012500</v>
       </c>
       <c r="E326" s="1">
-        <v>74339180</v>
+        <v>136757380</v>
       </c>
       <c r="F326" s="1">
         <v>611769880</v>
@@ -9745,16 +9741,16 @@
         <v>830172000</v>
       </c>
       <c r="D327" s="1">
-        <v>463475275</v>
+        <v>370988700</v>
       </c>
       <c r="E327" s="1">
-        <v>102288713</v>
+        <v>191049288</v>
       </c>
       <c r="F327" s="1">
-        <v>565763988</v>
+        <v>562037988</v>
       </c>
       <c r="G327" s="1">
-        <v>264408012</v>
+        <v>268134012</v>
       </c>
       <c r="H327" s="1">
         <v>0</v>
@@ -10086,13 +10082,13 @@
         <v>0</v>
       </c>
       <c r="E340" s="1">
-        <v>36036000</v>
+        <v>36811000</v>
       </c>
       <c r="F340" s="1">
-        <v>36036000</v>
+        <v>36811000</v>
       </c>
       <c r="G340" s="1">
-        <v>71964000</v>
+        <v>71189000</v>
       </c>
       <c r="H340" s="1">
         <v>0</v>
@@ -10164,13 +10160,13 @@
         <v>0</v>
       </c>
       <c r="E343" s="1">
-        <v>738750191</v>
+        <v>1495183889</v>
       </c>
       <c r="F343" s="1">
-        <v>738750191</v>
+        <v>1495183889</v>
       </c>
       <c r="G343" s="1">
-        <v>9976165822</v>
+        <v>9219732124</v>
       </c>
       <c r="H343" s="1">
         <v>0</v>
@@ -10190,13 +10186,13 @@
         <v>0</v>
       </c>
       <c r="E344" s="1">
-        <v>22890549</v>
+        <v>45781098</v>
       </c>
       <c r="F344" s="1">
-        <v>22890549</v>
+        <v>45781098</v>
       </c>
       <c r="G344" s="1">
-        <v>252929883</v>
+        <v>230039334</v>
       </c>
       <c r="H344" s="1">
         <v>0</v>
@@ -10216,13 +10212,13 @@
         <v>0</v>
       </c>
       <c r="E345" s="1">
-        <v>437079078</v>
+        <v>811939078</v>
       </c>
       <c r="F345" s="1">
-        <v>437079078</v>
+        <v>811939078</v>
       </c>
       <c r="G345" s="1">
-        <v>10095085124</v>
+        <v>9720225124</v>
       </c>
       <c r="H345" s="1">
         <v>0</v>
@@ -10268,13 +10264,13 @@
         <v>0</v>
       </c>
       <c r="E347" s="1">
-        <v>74724490</v>
+        <v>152705067</v>
       </c>
       <c r="F347" s="1">
-        <v>74724490</v>
+        <v>152705067</v>
       </c>
       <c r="G347" s="1">
-        <v>1216870155</v>
+        <v>1138889578</v>
       </c>
       <c r="H347" s="1">
         <v>0</v>
@@ -10294,13 +10290,13 @@
         <v>0</v>
       </c>
       <c r="E348" s="1">
-        <v>3896802</v>
+        <v>7793604</v>
       </c>
       <c r="F348" s="1">
-        <v>3896802</v>
+        <v>7793604</v>
       </c>
       <c r="G348" s="1">
-        <v>43513944</v>
+        <v>39617142</v>
       </c>
       <c r="H348" s="1">
         <v>0</v>
@@ -10320,13 +10316,13 @@
         <v>0</v>
       </c>
       <c r="E349" s="1">
-        <v>66217962</v>
+        <v>130810462</v>
       </c>
       <c r="F349" s="1">
-        <v>66217962</v>
+        <v>130810462</v>
       </c>
       <c r="G349" s="1">
-        <v>1456800142</v>
+        <v>1392207642</v>
       </c>
       <c r="H349" s="1">
         <v>0</v>
@@ -10369,16 +10365,16 @@
         <v>50160692946</v>
       </c>
       <c r="D351" s="1">
-        <v>17347262941</v>
+        <v>17192358166</v>
       </c>
       <c r="E351" s="1">
-        <v>2119645105</v>
+        <v>3572253006</v>
       </c>
       <c r="F351" s="1">
-        <v>19466908046</v>
+        <v>20764611172</v>
       </c>
       <c r="G351" s="1">
-        <v>30693784900</v>
+        <v>29396081774</v>
       </c>
       <c r="H351" s="1">
         <v>0</v>
@@ -10447,16 +10443,16 @@
         <v>1122403500</v>
       </c>
       <c r="D354" s="1">
-        <v>130217975</v>
+        <v>156346139</v>
       </c>
       <c r="E354" s="1">
         <v>95210204</v>
       </c>
       <c r="F354" s="1">
-        <v>225428179</v>
+        <v>251556343</v>
       </c>
       <c r="G354" s="1">
-        <v>896975321</v>
+        <v>870847157</v>
       </c>
       <c r="H354" s="1">
         <v>0</v>
@@ -10525,10 +10521,10 @@
         <v>522368500</v>
       </c>
       <c r="D357" s="1">
-        <v>154355541</v>
+        <v>130355541</v>
       </c>
       <c r="E357" s="1">
-        <v>0</v>
+        <v>24000000</v>
       </c>
       <c r="F357" s="1">
         <v>154355541</v>
@@ -10629,10 +10625,10 @@
         <v>235100000</v>
       </c>
       <c r="D361" s="1">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1">
         <v>3229600</v>
-      </c>
-      <c r="E361" s="1">
-        <v>0</v>
       </c>
       <c r="F361" s="1">
         <v>3229600</v>
@@ -10759,10 +10755,10 @@
         <v>64000000</v>
       </c>
       <c r="D366" s="1">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E366" s="1">
-        <v>11987000</v>
+        <v>13487000</v>
       </c>
       <c r="F366" s="1">
         <v>13487000</v>
@@ -10785,16 +10781,16 @@
         <v>300400000</v>
       </c>
       <c r="D367" s="1">
-        <v>62868462</v>
+        <v>112868462</v>
       </c>
       <c r="E367" s="1">
         <v>21790000</v>
       </c>
       <c r="F367" s="1">
-        <v>84658462</v>
+        <v>134658462</v>
       </c>
       <c r="G367" s="1">
-        <v>215741538</v>
+        <v>165741538</v>
       </c>
       <c r="H367" s="1">
         <v>0</v>
@@ -10866,13 +10862,13 @@
         <v>0</v>
       </c>
       <c r="E370" s="1">
-        <v>32085000</v>
+        <v>32935000</v>
       </c>
       <c r="F370" s="1">
-        <v>32085000</v>
+        <v>32935000</v>
       </c>
       <c r="G370" s="1">
-        <v>10590000</v>
+        <v>9740000</v>
       </c>
       <c r="H370" s="1">
         <v>0</v>
@@ -10944,13 +10940,13 @@
         <v>0</v>
       </c>
       <c r="E373" s="1">
-        <v>342399655</v>
+        <v>663094298</v>
       </c>
       <c r="F373" s="1">
-        <v>342399655</v>
+        <v>663094298</v>
       </c>
       <c r="G373" s="1">
-        <v>4197407263</v>
+        <v>3876712620</v>
       </c>
       <c r="H373" s="1">
         <v>0</v>
@@ -10970,13 +10966,13 @@
         <v>0</v>
       </c>
       <c r="E374" s="1">
-        <v>6837208</v>
+        <v>13674416</v>
       </c>
       <c r="F374" s="1">
-        <v>6837208</v>
+        <v>13674416</v>
       </c>
       <c r="G374" s="1">
-        <v>76217361</v>
+        <v>69380153</v>
       </c>
       <c r="H374" s="1">
         <v>0</v>
@@ -10996,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="E375" s="1">
-        <v>171765000</v>
+        <v>343680000</v>
       </c>
       <c r="F375" s="1">
-        <v>171765000</v>
+        <v>343680000</v>
       </c>
       <c r="G375" s="1">
-        <v>4497874602</v>
+        <v>4325959602</v>
       </c>
       <c r="H375" s="1">
         <v>0</v>
@@ -11048,13 +11044,13 @@
         <v>0</v>
       </c>
       <c r="E377" s="1">
-        <v>46807620</v>
+        <v>93615240</v>
       </c>
       <c r="F377" s="1">
-        <v>46807620</v>
+        <v>93615240</v>
       </c>
       <c r="G377" s="1">
-        <v>748305813</v>
+        <v>701498193</v>
       </c>
       <c r="H377" s="1">
         <v>0</v>
@@ -11074,13 +11070,13 @@
         <v>0</v>
       </c>
       <c r="E378" s="1">
-        <v>1969897</v>
+        <v>3939794</v>
       </c>
       <c r="F378" s="1">
-        <v>1969897</v>
+        <v>3939794</v>
       </c>
       <c r="G378" s="1">
-        <v>35524038</v>
+        <v>33554141</v>
       </c>
       <c r="H378" s="1">
         <v>0</v>
@@ -11100,13 +11096,13 @@
         <v>0</v>
       </c>
       <c r="E379" s="1">
-        <v>43930000</v>
+        <v>87860000</v>
       </c>
       <c r="F379" s="1">
-        <v>43930000</v>
+        <v>87860000</v>
       </c>
       <c r="G379" s="1">
-        <v>916303849</v>
+        <v>872373849</v>
       </c>
       <c r="H379" s="1">
         <v>0</v>
@@ -11149,16 +11145,16 @@
         <v>17495468591</v>
       </c>
       <c r="D381" s="1">
-        <v>464602245</v>
+        <v>512000809</v>
       </c>
       <c r="E381" s="1">
-        <v>930984114</v>
+        <v>1552718082</v>
       </c>
       <c r="F381" s="1">
-        <v>1395586359</v>
+        <v>2064718891</v>
       </c>
       <c r="G381" s="1">
-        <v>16099882232</v>
+        <v>15430749700</v>
       </c>
       <c r="H381" s="1">
         <v>0</v>
@@ -11591,10 +11587,10 @@
         <v>637500000</v>
       </c>
       <c r="D398" s="1">
-        <v>9815000</v>
+        <v>9500000</v>
       </c>
       <c r="E398" s="1">
-        <v>217836545</v>
+        <v>218151545</v>
       </c>
       <c r="F398" s="1">
         <v>227651545</v>
@@ -11724,13 +11720,13 @@
         <v>0</v>
       </c>
       <c r="E403" s="1">
-        <v>7825000</v>
+        <v>20651000</v>
       </c>
       <c r="F403" s="1">
-        <v>7825000</v>
+        <v>20651000</v>
       </c>
       <c r="G403" s="1">
-        <v>109175000</v>
+        <v>96349000</v>
       </c>
       <c r="H403" s="1">
         <v>0</v>
@@ -11828,13 +11824,13 @@
         <v>0</v>
       </c>
       <c r="E407" s="1">
-        <v>600666477</v>
+        <v>1210395223</v>
       </c>
       <c r="F407" s="1">
-        <v>600666477</v>
+        <v>1210395223</v>
       </c>
       <c r="G407" s="1">
-        <v>8040679234</v>
+        <v>7430950488</v>
       </c>
       <c r="H407" s="1">
         <v>0</v>
@@ -11854,13 +11850,13 @@
         <v>0</v>
       </c>
       <c r="E408" s="1">
-        <v>4259672</v>
+        <v>8519344</v>
       </c>
       <c r="F408" s="1">
-        <v>4259672</v>
+        <v>8519344</v>
       </c>
       <c r="G408" s="1">
-        <v>46564407</v>
+        <v>42304735</v>
       </c>
       <c r="H408" s="1">
         <v>0</v>
@@ -11880,13 +11876,13 @@
         <v>0</v>
       </c>
       <c r="E409" s="1">
-        <v>356764070</v>
+        <v>664096070</v>
       </c>
       <c r="F409" s="1">
-        <v>356764070</v>
+        <v>664096070</v>
       </c>
       <c r="G409" s="1">
-        <v>9022804422</v>
+        <v>8715472422</v>
       </c>
       <c r="H409" s="1">
         <v>0</v>
@@ -11932,13 +11928,13 @@
         <v>0</v>
       </c>
       <c r="E411" s="1">
-        <v>48724787</v>
+        <v>107759966</v>
       </c>
       <c r="F411" s="1">
-        <v>48724787</v>
+        <v>107759966</v>
       </c>
       <c r="G411" s="1">
-        <v>855764859</v>
+        <v>796729680</v>
       </c>
       <c r="H411" s="1">
         <v>0</v>
@@ -11958,13 +11954,13 @@
         <v>0</v>
       </c>
       <c r="E412" s="1">
-        <v>1862467</v>
+        <v>3779387</v>
       </c>
       <c r="F412" s="1">
-        <v>1862467</v>
+        <v>3779387</v>
       </c>
       <c r="G412" s="1">
-        <v>20934129</v>
+        <v>19017209</v>
       </c>
       <c r="H412" s="1">
         <v>0</v>
@@ -11984,13 +11980,13 @@
         <v>0</v>
       </c>
       <c r="E413" s="1">
-        <v>52373022</v>
+        <v>104355522</v>
       </c>
       <c r="F413" s="1">
-        <v>52373022</v>
+        <v>104355522</v>
       </c>
       <c r="G413" s="1">
-        <v>1053510425</v>
+        <v>1001527925</v>
       </c>
       <c r="H413" s="1">
         <v>0</v>
@@ -12033,16 +12029,16 @@
         <v>26293508870</v>
       </c>
       <c r="D415" s="1">
-        <v>806147285</v>
+        <v>805832285</v>
       </c>
       <c r="E415" s="1">
-        <v>1416861631</v>
+        <v>2464257648</v>
       </c>
       <c r="F415" s="1">
-        <v>2223008916</v>
+        <v>3270089933</v>
       </c>
       <c r="G415" s="1">
-        <v>24070499954</v>
+        <v>23023418937</v>
       </c>
       <c r="H415" s="1">
         <v>0</v>
@@ -12052,332 +12048,171 @@
       <c r="A416" t="s">
         <v>8</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416" s="1">
         <v>1871950730</v>
       </c>
-      <c r="C416" s="2">
+      <c r="C416" s="1">
         <v>1871950730</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416" s="1">
         <f>F416-E416</f>
         <v>128471830</v>
       </c>
-      <c r="E416" s="2">
-        <v>0</v>
-      </c>
-      <c r="F416" s="2">
+      <c r="E416" s="1">
+        <v>0</v>
+      </c>
+      <c r="F416" s="1">
         <v>128471830</v>
       </c>
-      <c r="G416" s="2">
+      <c r="G416" s="1">
         <f>C416-F416</f>
         <v>1743478900</v>
       </c>
-      <c r="H416" s="2">
+      <c r="H416" s="1">
         <f>B416-C416</f>
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>87</v>
       </c>
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="F417" s="2"/>
-      <c r="G417" s="2"/>
-      <c r="H417" s="2"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>88</v>
       </c>
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="F418" s="2"/>
-      <c r="G418" s="2"/>
-      <c r="H418" s="2"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>89</v>
       </c>
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>90</v>
       </c>
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>91</v>
       </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="F421" s="2"/>
-      <c r="G421" s="2"/>
-      <c r="H421" s="2"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>92</v>
       </c>
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="F422" s="2"/>
-      <c r="G422" s="2"/>
-      <c r="H422" s="2"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>93</v>
       </c>
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>94</v>
       </c>
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="F424" s="2"/>
-      <c r="G424" s="2"/>
-      <c r="H424" s="2"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>95</v>
       </c>
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>96</v>
       </c>
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="F426" s="2"/>
-      <c r="G426" s="2"/>
-      <c r="H426" s="2"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>97</v>
       </c>
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>98</v>
       </c>
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>99</v>
       </c>
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="F429" s="2"/>
-      <c r="G429" s="2"/>
-      <c r="H429" s="2"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>100</v>
       </c>
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="F430" s="2"/>
-      <c r="G430" s="2"/>
-      <c r="H430" s="2"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>101</v>
       </c>
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="F431" s="2"/>
-      <c r="G431" s="2"/>
-      <c r="H431" s="2"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>102</v>
       </c>
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="F432" s="2"/>
-      <c r="G432" s="2"/>
-      <c r="H432" s="2"/>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>48</v>
       </c>
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="F433" s="2"/>
-      <c r="G433" s="2"/>
-      <c r="H433" s="2"/>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>12</v>
       </c>
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="F434" s="2"/>
-      <c r="G434" s="2"/>
-      <c r="H434" s="2"/>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>14</v>
       </c>
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>15</v>
       </c>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>52</v>
       </c>
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="F437" s="2"/>
-      <c r="G437" s="2"/>
-      <c r="H437" s="2"/>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>103</v>
       </c>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="F438" s="2"/>
-      <c r="G438" s="2"/>
-      <c r="H438" s="2"/>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>104</v>
       </c>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="F439" s="2"/>
-      <c r="G439" s="2"/>
-      <c r="H439" s="2"/>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>21</v>
       </c>
-      <c r="B440" s="2">
+      <c r="B440" s="1">
         <v>60000000</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440" s="1">
         <v>60000000</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="1">
         <f>F440-E440</f>
         <v>9000000</v>
       </c>
-      <c r="E440" s="2">
-        <v>0</v>
-      </c>
-      <c r="F440" s="2">
+      <c r="E440" s="1">
+        <v>0</v>
+      </c>
+      <c r="F440" s="1">
         <v>9000000</v>
       </c>
-      <c r="G440" s="2">
+      <c r="G440" s="1">
         <f>C440-F440</f>
         <v>51000000</v>
       </c>
-      <c r="H440" s="2">
+      <c r="H440" s="1">
         <f>B440-C440</f>
         <v>0</v>
       </c>
@@ -12386,27 +12221,27 @@
       <c r="A441" t="s">
         <v>57</v>
       </c>
-      <c r="B441" s="2">
+      <c r="B441" s="1">
         <v>45150000</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="1">
         <v>45150000</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="1">
         <f>F441-E441</f>
         <v>6119400</v>
       </c>
-      <c r="E441" s="2">
-        <v>0</v>
-      </c>
-      <c r="F441" s="2">
+      <c r="E441" s="1">
+        <v>0</v>
+      </c>
+      <c r="F441" s="1">
         <v>6119400</v>
       </c>
-      <c r="G441" s="2">
+      <c r="G441" s="1">
         <f>C441-F441</f>
         <v>39030600</v>
       </c>
-      <c r="H441" s="2">
+      <c r="H441" s="1">
         <f>B441-C441</f>
         <v>0</v>
       </c>
@@ -12415,342 +12250,188 @@
       <c r="A442" t="s">
         <v>22</v>
       </c>
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>105</v>
       </c>
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>106</v>
       </c>
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="F444" s="2"/>
-      <c r="G444" s="2"/>
-      <c r="H444" s="2"/>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>107</v>
       </c>
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>108</v>
       </c>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>109</v>
       </c>
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="F447" s="2"/>
-      <c r="G447" s="2"/>
-      <c r="H447" s="2"/>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>24</v>
       </c>
-      <c r="B448" s="2">
+      <c r="B448" s="1">
         <v>372660000</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448" s="1">
         <v>372660000</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="1">
         <f>F448-E448</f>
-        <v>2002800</v>
-      </c>
-      <c r="E448" s="2">
-        <v>2487500</v>
-      </c>
-      <c r="F448" s="2">
-        <v>4490300</v>
-      </c>
-      <c r="G448" s="2">
+        <v>1004400</v>
+      </c>
+      <c r="E448" s="1">
+        <v>5604650</v>
+      </c>
+      <c r="F448" s="1">
+        <v>6609050</v>
+      </c>
+      <c r="G448" s="1">
         <f>C448-F448</f>
-        <v>368169700</v>
-      </c>
-      <c r="H448" s="2">
+        <v>366050950</v>
+      </c>
+      <c r="H448" s="1">
         <f>B448-C448</f>
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>25</v>
       </c>
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="F449" s="2"/>
-      <c r="G449" s="2"/>
-      <c r="H449" s="2"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>26</v>
       </c>
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>27</v>
       </c>
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>29</v>
       </c>
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>79</v>
       </c>
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="F453" s="2"/>
-      <c r="G453" s="2"/>
-      <c r="H453" s="2"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>30</v>
       </c>
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="F454" s="2"/>
-      <c r="G454" s="2"/>
-      <c r="H454" s="2"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>73</v>
       </c>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>59</v>
       </c>
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>110</v>
       </c>
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="F457" s="2"/>
-      <c r="G457" s="2"/>
-      <c r="H457" s="2"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>74</v>
       </c>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="F458" s="2"/>
-      <c r="G458" s="2"/>
-      <c r="H458" s="2"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>111</v>
       </c>
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>31</v>
       </c>
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="F460" s="2"/>
-      <c r="G460" s="2"/>
-      <c r="H460" s="2"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>32</v>
       </c>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="F461" s="2"/>
-      <c r="G461" s="2"/>
-      <c r="H461" s="2"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>33</v>
       </c>
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="F462" s="2"/>
-      <c r="G462" s="2"/>
-      <c r="H462" s="2"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>34</v>
       </c>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-      <c r="H463" s="2"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>35</v>
       </c>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="F464" s="2"/>
-      <c r="G464" s="2"/>
-      <c r="H464" s="2"/>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>37</v>
       </c>
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-      <c r="E465" s="2"/>
-      <c r="F465" s="2"/>
-      <c r="G465" s="2"/>
-      <c r="H465" s="2"/>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>38</v>
       </c>
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>42</v>
       </c>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>112</v>
       </c>
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="F468" s="2"/>
-      <c r="G468" s="2"/>
-      <c r="H468" s="2"/>
+      <c r="B468" s="1">
+        <f>SUM(B416:B467)</f>
+        <v>2349760730</v>
+      </c>
+      <c r="C468" s="1">
+        <f t="shared" ref="C468:H468" si="0">SUM(C416:C467)</f>
+        <v>2349760730</v>
+      </c>
+      <c r="D468" s="1">
+        <f t="shared" si="0"/>
+        <v>144595630</v>
+      </c>
+      <c r="E468" s="1">
+        <f t="shared" si="0"/>
+        <v>5604650</v>
+      </c>
+      <c r="F468" s="1">
+        <f t="shared" si="0"/>
+        <v>150200280</v>
+      </c>
+      <c r="G468" s="1">
+        <f t="shared" si="0"/>
+        <v>2199560450</v>
+      </c>
+      <c r="H468" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
@@ -12971,10 +12652,10 @@
         <v>2094950000</v>
       </c>
       <c r="D477" s="1">
-        <v>940614238</v>
+        <v>844058238</v>
       </c>
       <c r="E477" s="1">
-        <v>0</v>
+        <v>96556000</v>
       </c>
       <c r="F477" s="1">
         <v>940614238</v>
@@ -13309,10 +12990,10 @@
         <v>508075000</v>
       </c>
       <c r="D490" s="1">
-        <v>86940000</v>
+        <v>45540000</v>
       </c>
       <c r="E490" s="1">
-        <v>41400000</v>
+        <v>82800000</v>
       </c>
       <c r="F490" s="1">
         <v>128340000</v>
@@ -13335,10 +13016,10 @@
         <v>640000000</v>
       </c>
       <c r="D491" s="1">
-        <v>8732447</v>
+        <v>8404406</v>
       </c>
       <c r="E491" s="1">
-        <v>446302662</v>
+        <v>446630703</v>
       </c>
       <c r="F491" s="1">
         <v>455035109</v>
@@ -13387,16 +13068,16 @@
         <v>278081750</v>
       </c>
       <c r="D493" s="1">
-        <v>182001260</v>
+        <v>64467900</v>
       </c>
       <c r="E493" s="1">
-        <v>0</v>
+        <v>112473360</v>
       </c>
       <c r="F493" s="1">
-        <v>182001260</v>
+        <v>176941260</v>
       </c>
       <c r="G493" s="1">
-        <v>96080490</v>
+        <v>101140490</v>
       </c>
       <c r="H493" s="1">
         <v>0</v>
@@ -13439,10 +13120,10 @@
         <v>163230750</v>
       </c>
       <c r="D495" s="1">
-        <v>12640000</v>
+        <v>1145000</v>
       </c>
       <c r="E495" s="1">
-        <v>0</v>
+        <v>11495000</v>
       </c>
       <c r="F495" s="1">
         <v>12640000</v>
@@ -13465,16 +13146,16 @@
         <v>172144500</v>
       </c>
       <c r="D496" s="1">
-        <v>14113670</v>
+        <v>10333670</v>
       </c>
       <c r="E496" s="1">
-        <v>31508320</v>
+        <v>36107070</v>
       </c>
       <c r="F496" s="1">
-        <v>45621990</v>
+        <v>46440740</v>
       </c>
       <c r="G496" s="1">
-        <v>126522510</v>
+        <v>125703760</v>
       </c>
       <c r="H496" s="1">
         <v>0</v>
@@ -13491,10 +13172,10 @@
         <v>9045000</v>
       </c>
       <c r="D497" s="1">
-        <v>2538000</v>
+        <v>0</v>
       </c>
       <c r="E497" s="1">
-        <v>2710402</v>
+        <v>5248402</v>
       </c>
       <c r="F497" s="1">
         <v>5248402</v>
@@ -13517,16 +13198,16 @@
         <v>40435250</v>
       </c>
       <c r="D498" s="1">
-        <v>3467360</v>
+        <v>2058680</v>
       </c>
       <c r="E498" s="1">
         <v>0</v>
       </c>
       <c r="F498" s="1">
-        <v>3467360</v>
+        <v>2058680</v>
       </c>
       <c r="G498" s="1">
-        <v>36967890</v>
+        <v>38376570</v>
       </c>
       <c r="H498" s="1">
         <v>0</v>
@@ -13624,13 +13305,13 @@
         <v>0</v>
       </c>
       <c r="E502" s="1">
-        <v>905358440</v>
+        <v>1811099261</v>
       </c>
       <c r="F502" s="1">
-        <v>905358440</v>
+        <v>1811099261</v>
       </c>
       <c r="G502" s="1">
-        <v>11258923457</v>
+        <v>10353182636</v>
       </c>
       <c r="H502" s="1">
         <v>0</v>
@@ -13650,13 +13331,13 @@
         <v>0</v>
       </c>
       <c r="E503" s="1">
-        <v>9200814</v>
+        <v>18414338</v>
       </c>
       <c r="F503" s="1">
-        <v>9200814</v>
+        <v>18414338</v>
       </c>
       <c r="G503" s="1">
-        <v>102307385</v>
+        <v>93093861</v>
       </c>
       <c r="H503" s="1">
         <v>0</v>
@@ -13676,13 +13357,13 @@
         <v>0</v>
       </c>
       <c r="E504" s="1">
-        <v>416956153</v>
+        <v>796429653</v>
       </c>
       <c r="F504" s="1">
-        <v>416956153</v>
+        <v>796429653</v>
       </c>
       <c r="G504" s="1">
-        <v>10384448044</v>
+        <v>10004974544</v>
       </c>
       <c r="H504" s="1">
         <v>0</v>
@@ -13728,13 +13409,13 @@
         <v>0</v>
       </c>
       <c r="E506" s="1">
-        <v>70023210</v>
+        <v>135886124</v>
       </c>
       <c r="F506" s="1">
-        <v>70023210</v>
+        <v>135886124</v>
       </c>
       <c r="G506" s="1">
-        <v>1382662029</v>
+        <v>1316799115</v>
       </c>
       <c r="H506" s="1">
         <v>0</v>
@@ -13754,13 +13435,13 @@
         <v>0</v>
       </c>
       <c r="E507" s="1">
-        <v>1825724</v>
+        <v>3651448</v>
       </c>
       <c r="F507" s="1">
-        <v>1825724</v>
+        <v>3651448</v>
       </c>
       <c r="G507" s="1">
-        <v>33339674</v>
+        <v>31513950</v>
       </c>
       <c r="H507" s="1">
         <v>0</v>
@@ -13780,13 +13461,13 @@
         <v>0</v>
       </c>
       <c r="E508" s="1">
-        <v>63249000</v>
+        <v>125914000</v>
       </c>
       <c r="F508" s="1">
-        <v>63249000</v>
+        <v>125914000</v>
       </c>
       <c r="G508" s="1">
-        <v>1635499501</v>
+        <v>1572834501</v>
       </c>
       <c r="H508" s="1">
         <v>0</v>
@@ -13855,16 +13536,16 @@
         <v>44562890151</v>
       </c>
       <c r="D511" s="1">
-        <v>8578361189</v>
+        <v>8303322108</v>
       </c>
       <c r="E511" s="1">
-        <v>2200566158</v>
+        <v>3894736792</v>
       </c>
       <c r="F511" s="1">
-        <v>10778927347</v>
+        <v>12198058900</v>
       </c>
       <c r="G511" s="1">
-        <v>33783962804</v>
+        <v>32364831251</v>
       </c>
       <c r="H511" s="1">
         <v>0</v>
@@ -13959,10 +13640,10 @@
         <v>2125000000</v>
       </c>
       <c r="D515" s="1">
-        <v>607183795</v>
+        <v>527929479</v>
       </c>
       <c r="E515" s="1">
-        <v>0</v>
+        <v>79254316</v>
       </c>
       <c r="F515" s="1">
         <v>607183795</v>
@@ -14063,10 +13744,10 @@
         <v>1057349000</v>
       </c>
       <c r="D519" s="1">
-        <v>162049240</v>
+        <v>74537440</v>
       </c>
       <c r="E519" s="1">
-        <v>0</v>
+        <v>87511800</v>
       </c>
       <c r="F519" s="1">
         <v>162049240</v>
@@ -14245,10 +13926,10 @@
         <v>142986000</v>
       </c>
       <c r="D526" s="1">
-        <v>16100000</v>
+        <v>0</v>
       </c>
       <c r="E526" s="1">
-        <v>16100000</v>
+        <v>32200000</v>
       </c>
       <c r="F526" s="1">
         <v>32200000</v>
@@ -14271,10 +13952,10 @@
         <v>384828750</v>
       </c>
       <c r="D527" s="1">
-        <v>3343694</v>
+        <v>343694</v>
       </c>
       <c r="E527" s="1">
-        <v>227704071</v>
+        <v>230704071</v>
       </c>
       <c r="F527" s="1">
         <v>231047765</v>
@@ -14297,10 +13978,10 @@
         <v>162500000</v>
       </c>
       <c r="D528" s="1">
-        <v>6056400</v>
+        <v>0</v>
       </c>
       <c r="E528" s="1">
-        <v>6576400</v>
+        <v>12632800</v>
       </c>
       <c r="F528" s="1">
         <v>12632800</v>
@@ -14323,16 +14004,16 @@
         <v>202625000</v>
       </c>
       <c r="D529" s="1">
-        <v>33972364</v>
+        <v>1000000</v>
       </c>
       <c r="E529" s="1">
-        <v>16484870</v>
+        <v>49382229</v>
       </c>
       <c r="F529" s="1">
-        <v>50457234</v>
+        <v>50382229</v>
       </c>
       <c r="G529" s="1">
-        <v>152167766</v>
+        <v>152242771</v>
       </c>
       <c r="H529" s="1">
         <v>0</v>
@@ -14404,13 +14085,13 @@
         <v>0</v>
       </c>
       <c r="E532" s="1">
-        <v>44128750</v>
+        <v>46241250</v>
       </c>
       <c r="F532" s="1">
-        <v>44128750</v>
+        <v>46241250</v>
       </c>
       <c r="G532" s="1">
-        <v>101819000</v>
+        <v>99706500</v>
       </c>
       <c r="H532" s="1">
         <v>0</v>
@@ -14482,13 +14163,13 @@
         <v>0</v>
       </c>
       <c r="E535" s="1">
-        <v>794957664</v>
+        <v>1591762003</v>
       </c>
       <c r="F535" s="1">
-        <v>794957664</v>
+        <v>1591762003</v>
       </c>
       <c r="G535" s="1">
-        <v>9893959202</v>
+        <v>9097154863</v>
       </c>
       <c r="H535" s="1">
         <v>0</v>
@@ -14508,13 +14189,13 @@
         <v>0</v>
       </c>
       <c r="E536" s="1">
-        <v>9029322</v>
+        <v>18102841</v>
       </c>
       <c r="F536" s="1">
-        <v>9029322</v>
+        <v>18102841</v>
       </c>
       <c r="G536" s="1">
-        <v>97086729</v>
+        <v>88013210</v>
       </c>
       <c r="H536" s="1">
         <v>0</v>
@@ -14534,13 +14215,13 @@
         <v>0</v>
       </c>
       <c r="E537" s="1">
-        <v>326359500</v>
+        <v>654899358</v>
       </c>
       <c r="F537" s="1">
-        <v>326359500</v>
+        <v>654899358</v>
       </c>
       <c r="G537" s="1">
-        <v>8891966843</v>
+        <v>8563426985</v>
       </c>
       <c r="H537" s="1">
         <v>0</v>
@@ -14586,13 +14267,13 @@
         <v>0</v>
       </c>
       <c r="E539" s="1">
-        <v>86596282</v>
+        <v>179659734</v>
       </c>
       <c r="F539" s="1">
-        <v>86596282</v>
+        <v>179659734</v>
       </c>
       <c r="G539" s="1">
-        <v>1336209671</v>
+        <v>1243146219</v>
       </c>
       <c r="H539" s="1">
         <v>0</v>
@@ -14612,13 +14293,13 @@
         <v>0</v>
       </c>
       <c r="E540" s="1">
-        <v>1136990</v>
+        <v>2273980</v>
       </c>
       <c r="F540" s="1">
-        <v>1136990</v>
+        <v>2273980</v>
       </c>
       <c r="G540" s="1">
-        <v>12779768</v>
+        <v>11642778</v>
       </c>
       <c r="H540" s="1">
         <v>0</v>
@@ -14638,13 +14319,13 @@
         <v>0</v>
       </c>
       <c r="E541" s="1">
-        <v>77050000</v>
+        <v>156987500</v>
       </c>
       <c r="F541" s="1">
-        <v>77050000</v>
+        <v>156987500</v>
       </c>
       <c r="G541" s="1">
-        <v>1482632761</v>
+        <v>1402695261</v>
       </c>
       <c r="H541" s="1">
         <v>0</v>
@@ -14687,16 +14368,16 @@
         <v>39919400060</v>
       </c>
       <c r="D543" s="1">
-        <v>9745647969</v>
+        <v>9520753089</v>
       </c>
       <c r="E543" s="1">
-        <v>1634105285</v>
+        <v>3169593318</v>
       </c>
       <c r="F543" s="1">
-        <v>11379753254</v>
+        <v>12690346407</v>
       </c>
       <c r="G543" s="1">
-        <v>28539646806</v>
+        <v>27229053653</v>
       </c>
       <c r="H543" s="1">
         <v>0</v>
